--- a/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/ng_oncho_2410_2_river_inspection_jig.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/ng_oncho_2410_2_river_inspection_jig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\jigawa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\jigawa\oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE32018-2ACB-44C1-BBC8-FB469FF2C595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC65048-0697-484B-8741-9C89791A437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="202">
   <si>
     <t>type</t>
   </si>
@@ -532,12 +532,6 @@
     <t>community = ${r_community}</t>
   </si>
   <si>
-    <t>ng_oncho_2408_2_river_insp_jig</t>
-  </si>
-  <si>
-    <t>(Jigawa) 2. River inspection Form</t>
-  </si>
-  <si>
     <t>JIGAWA</t>
   </si>
   <si>
@@ -593,6 +587,66 @@
   </si>
   <si>
     <t>JIG_GAR_A_024</t>
+  </si>
+  <si>
+    <t>(Jigawa) 2. River inspection Form V2</t>
+  </si>
+  <si>
+    <t>ng_oncho_2408_2_river_insp_jig_v2</t>
+  </si>
+  <si>
+    <t>AUYO</t>
+  </si>
+  <si>
+    <t>KAZAURE</t>
+  </si>
+  <si>
+    <t>KIRIKASAMA</t>
+  </si>
+  <si>
+    <t>MALLAM MADORI</t>
+  </si>
+  <si>
+    <t>RINGIM</t>
+  </si>
+  <si>
+    <t>TAURA</t>
+  </si>
+  <si>
+    <t>HADIYAU</t>
+  </si>
+  <si>
+    <t>GADA</t>
+  </si>
+  <si>
+    <t>TURABU</t>
+  </si>
+  <si>
+    <t>ARKI</t>
+  </si>
+  <si>
+    <t>GABARIN</t>
+  </si>
+  <si>
+    <t>DAURAWA</t>
+  </si>
+  <si>
+    <t>JIG_KIR_A_025</t>
+  </si>
+  <si>
+    <t>JIG_KAZ_A_026</t>
+  </si>
+  <si>
+    <t>JIG_RIN_A_027</t>
+  </si>
+  <si>
+    <t>JIG_MAM_A_028</t>
+  </si>
+  <si>
+    <t>JIG_AUY_A_029</t>
+  </si>
+  <si>
+    <t>JIG_TAU_A_030</t>
   </si>
 </sst>
 </file>
@@ -1984,8 +2038,8 @@
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD53"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2300,400 +2354,569 @@
         <v>107</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>155</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B47" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>155</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="B48" s="21" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>178</v>
-      </c>
       <c r="C48" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F48" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="E48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F49" t="s">
-        <v>176</v>
+        <v>171</v>
+      </c>
+      <c r="E49" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="F50" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="E50" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="F51" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="E51" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="E52" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="21" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
+      <c r="C58" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
+      <c r="A62" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F63" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F68" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -2992,7 +3215,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3016,10 +3239,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>

--- a/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/ng_oncho_2410_2_river_inspection_jig.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/ng_oncho_2410_2_river_inspection_jig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\jigawa\oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC65048-0697-484B-8741-9C89791A437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF0DA07-0A05-4130-8DBB-DF036AD0FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -391,9 +391,6 @@
     <t>begin group</t>
   </si>
   <si>
-    <t>The question on characteristics of the river should be broken into two sections - the first being about the river, and the second being about the substrate. The question text has changed, as has the options. It should read as follows: What are the characteristics of the river around the breeding site [or potential breeding site area if not currently present]?</t>
-  </si>
-  <si>
     <t>Please choose as many as apply.</t>
   </si>
   <si>
@@ -647,6 +644,9 @@
   </si>
   <si>
     <t>JIG_TAU_A_030</t>
+  </si>
+  <si>
+    <t>What are the characteristics of the river around the breeding site (or potential breeding site area if not currently present</t>
   </si>
 </sst>
 </file>
@@ -1203,11 +1203,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>108</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>109</v>
@@ -1340,13 +1340,13 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>110</v>
@@ -1365,13 +1365,13 @@
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>38</v>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M6" s="7"/>
     </row>
@@ -1811,19 +1811,19 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" s="10" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="9"/>
@@ -1838,23 +1838,23 @@
     </row>
     <row r="25" spans="1:13" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -1867,16 +1867,16 @@
     </row>
     <row r="26" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="27" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -1951,7 +1951,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="7"/>
@@ -2037,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD71"/>
     </sheetView>
@@ -2067,7 +2067,7 @@
         <v>106</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2215,134 +2215,134 @@
     </row>
     <row r="18" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>89</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>137</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2354,10 +2354,10 @@
         <v>107</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2369,13 +2369,13 @@
         <v>106</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,13 +2383,13 @@
         <v>106</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2397,13 +2397,13 @@
         <v>106</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2411,13 +2411,13 @@
         <v>106</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2425,13 +2425,13 @@
         <v>106</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2439,13 +2439,13 @@
         <v>106</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2453,13 +2453,13 @@
         <v>106</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2467,13 +2467,13 @@
         <v>106</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2481,13 +2481,13 @@
         <v>106</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2495,13 +2495,13 @@
         <v>106</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2509,13 +2509,13 @@
         <v>106</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2523,13 +2523,13 @@
         <v>106</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2538,170 +2538,170 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2713,13 +2713,13 @@
         <v>38</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2727,13 +2727,13 @@
         <v>38</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2741,13 +2741,13 @@
         <v>38</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,13 +2755,13 @@
         <v>38</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2769,13 +2769,13 @@
         <v>38</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2783,13 +2783,13 @@
         <v>38</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2797,13 +2797,13 @@
         <v>38</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2811,13 +2811,13 @@
         <v>38</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2825,13 +2825,13 @@
         <v>38</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2839,13 +2839,13 @@
         <v>38</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2853,13 +2853,13 @@
         <v>38</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2867,13 +2867,13 @@
         <v>38</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3239,10 +3239,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
